--- a/Software Quality Anssurance -Mileapp_Luhur Pambudi Dwiatmaja.xlsx
+++ b/Software Quality Anssurance -Mileapp_Luhur Pambudi Dwiatmaja.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nessy\git\TestMile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AED738-8447-45B9-947E-6CAC4C7E9FC8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BA9D1F-2A5F-46B2-BD57-B13811A3F428}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DBD1EE71-F622-4072-B0FA-80609A334BCC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DBD1EE71-F622-4072-B0FA-80609A334BCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Requirements UI" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="67">
   <si>
     <t>TC-1-1-P</t>
   </si>
@@ -187,6 +187,76 @@
   </si>
   <si>
     <t>TC-2-7-P</t>
+  </si>
+  <si>
+    <t>value will be blank in textbox_Username</t>
+  </si>
+  <si>
+    <t>value will be blank in textbox_Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massange error will be displayed </t>
+  </si>
+  <si>
+    <t>Enter Value '' in textbox_Username</t>
+  </si>
+  <si>
+    <t>Enter Value '' in textbox_Password</t>
+  </si>
+  <si>
+    <t>Enter Value 'test' in textbox_Username</t>
+  </si>
+  <si>
+    <t>Enter Value 'pass' in textbox_Password</t>
+  </si>
+  <si>
+    <t>value 'pass' will be inputted in textbox_Password</t>
+  </si>
+  <si>
+    <t>value 'test' will be inputted in textbox_Username</t>
+  </si>
+  <si>
+    <t>value 'Password' will be inputted in textbox_Password</t>
+  </si>
+  <si>
+    <t>To ensure user can't login using  wrong Username and password</t>
+  </si>
+  <si>
+    <t>To ensure user can't login on mandatory field</t>
+  </si>
+  <si>
+    <t>Enter Value 'Pass' in textbox_Password</t>
+  </si>
+  <si>
+    <t>value 'Pass' will be inputted in textbox_Password</t>
+  </si>
+  <si>
+    <t>To ensure user can't login using unregister Username</t>
+  </si>
+  <si>
+    <t>To ensure user can't login using unregister Password</t>
+  </si>
+  <si>
+    <t>Message Error Will be displayed</t>
+  </si>
+  <si>
+    <t>To ensure user can't login on mandatory username field</t>
+  </si>
+  <si>
+    <t>To ensure user can't login on mandatory password field</t>
+  </si>
+  <si>
+    <t>Login Screen Will be Display, Contains: 
+-Button_Back
+-Image_StarWars
+-Label_Email
+-label_Password
+-textbox_Username
+-label_Password
+-textbox_Password
+-checkbox_ShowPassword
+-Button_Login
+-hyperlink_ContactUs</t>
   </si>
 </sst>
 </file>
@@ -227,12 +297,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -263,8 +333,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{541FA691-7BDF-4967-A685-BFEF64FC8C50}" name="Table3" displayName="Table3" ref="A1:G132" totalsRowShown="0">
-  <autoFilter ref="A1:G132" xr:uid="{04CF55DC-3C1A-420E-9F5D-A31EC73BA1C5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{541FA691-7BDF-4967-A685-BFEF64FC8C50}" name="Table3" displayName="Table3" ref="A1:G130" totalsRowShown="0">
+  <autoFilter ref="A1:G130" xr:uid="{04CF55DC-3C1A-420E-9F5D-A31EC73BA1C5}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{E15D1130-586A-4A74-85AF-21A177EE7A4C}" name="No"/>
     <tableColumn id="2" xr3:uid="{0DD75A5A-044F-4DDD-914F-FA5405BA2139}" name="Automation ID"/>
@@ -577,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2901747F-EB56-41FA-B063-1107C370CB74}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G24:G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,10 +658,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -686,10 +756,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293C1F35-9082-4972-9E3D-D09E41D18504}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,7 +913,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>3</v>
       </c>
@@ -851,7 +921,7 @@
         <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -873,7 +943,7 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -895,7 +965,7 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -937,10 +1007,10 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -948,10 +1018,10 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -962,7 +1032,7 @@
         <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -973,7 +1043,7 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1015,10 +1085,10 @@
         <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1026,10 +1096,10 @@
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1040,349 +1110,349 @@
         <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A31">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>6</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B30" t="s">
         <v>11</v>
       </c>
-      <c r="C31" t="s">
-        <v>38</v>
-      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="D32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
+      </c>
+      <c r="F33" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D36">
-        <v>6</v>
-      </c>
-      <c r="E36" t="s">
-        <v>42</v>
-      </c>
-      <c r="F36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A39">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>7</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B37" t="s">
         <v>12</v>
       </c>
-      <c r="C39" t="s">
-        <v>38</v>
-      </c>
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="D39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
+      </c>
+      <c r="F41" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D42">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D43">
-        <v>5</v>
-      </c>
-      <c r="E43" t="s">
-        <v>41</v>
-      </c>
-      <c r="F43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
       <c r="D44">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>42</v>
-      </c>
-      <c r="F44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>8</v>
-      </c>
-      <c r="B46" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" t="s">
-        <v>38</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="D46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
+      </c>
+      <c r="F48" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>9</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2">
+        <v>2</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2">
+        <v>3</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2">
         <v>4</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E54" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F54" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D50">
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2">
         <v>5</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E55" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F55" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D51">
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2">
         <v>6</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E56" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F51" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="105" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>9</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" s="3">
-        <v>1</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3">
-        <v>2</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3">
-        <v>3</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3">
-        <v>4</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G56" s="3"/>
+      <c r="F56" t="s">
+        <v>49</v>
+      </c>
+      <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3">
-        <v>6</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
